--- a/3-initialization-environment/python-excel-initialization-start.xlsx
+++ b/3-initialization-environment/python-excel-initialization-start.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27723"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://maqimzmnjbt5wavnbicv98tlhog-my.sharepoint.com/personal/george_stringfestanalytics_com/Documents/Stringfest assets/OReilly/oreilly-shortcuts/python-in-excel/3-initialization-environment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\oreilly-shortcuts-python-in-excel\3-initialization-environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC104886299A56CE5ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{664855DD-285F-4146-8525-A237EB93F084}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C2A539-55FC-479A-9026-AD20805369C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,47 +35,10 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -89,26 +52,6 @@
 </code>
     </initialization>
   </environmentDefinition>
-  <pythonScripts>
-    <pythonScript>
-      <code># The following import statements are pre-loaded.
-# Data analysis
-import numpy as np
-import pandas as pd
-# Data viz
-import matplotlib.pyplot as plt
-import seaborn as sns
-# Stats
-import statsmodels as sm
-# Backend Python &lt;&gt; Excel
-import excel
-import warnings
-warnings.simplefilter('ignore')
-# Set default conversions for the xl() function.
-excel.set_xl_scalar_conversion(excel.convert_to_scalar)
-excel.set_xl_array_conversion(excel.convert_to_dataframe)</code>
-    </pythonScript>
-  </pythonScripts>
 </python>
 </file>
 
@@ -160,62 +103,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>14</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_error">
-    <k n="errorType" t="i"/>
-  </s>
-</rvStructures>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -485,15 +372,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A1" t="e" cm="1" vm="1">
-        <f t="array" aca="1" ref="A1" ca="1">_xlfn._xlws.PY(0,1)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>